--- a/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 2020.xlsx
+++ b/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 2020.xlsx
@@ -955,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -978,7 +978,7 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1001,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1047,7 +1047,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 2020.xlsx
+++ b/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
   <si>
     <t>Mat</t>
   </si>
@@ -76,49 +76,163 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>BELLO</t>
-  </si>
-  <si>
-    <t>LLAME</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
+    <t>ALCANTARA</t>
+  </si>
+  <si>
+    <t>AJACTLE</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CANALES</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>LAZARO</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
   </si>
   <si>
     <t>TREJO</t>
   </si>
   <si>
-    <t>ARENAS</t>
+    <t>XALAMIHUA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
   </si>
   <si>
     <t>VERA</t>
   </si>
   <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>CHIPAHUA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
     <t>PEREZ</t>
   </si>
   <si>
-    <t>PALMA</t>
-  </si>
-  <si>
-    <t>LUENGAS</t>
-  </si>
-  <si>
-    <t>JOSMAR ANTONIO</t>
-  </si>
-  <si>
-    <t>AIDA</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>ELIZABETH</t>
+    <t>FERRAL</t>
+  </si>
+  <si>
+    <t>TZOYONTLE</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>ZOPIYACTLE</t>
+  </si>
+  <si>
+    <t>BITHIA MARIAN</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>BRENDA JANET</t>
+  </si>
+  <si>
+    <t>ADOLFO ANTONIO</t>
+  </si>
+  <si>
+    <t>EDITH</t>
+  </si>
+  <si>
+    <t>AZAEL</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>ANGEL ALEXIS</t>
+  </si>
+  <si>
+    <t>ANGEL JARET</t>
+  </si>
+  <si>
+    <t>KARLA MICHEL</t>
+  </si>
+  <si>
+    <t>ROSA JATZIRI</t>
+  </si>
+  <si>
+    <t>JOHANA</t>
+  </si>
+  <si>
+    <t>VALERIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>NELLY MARLENE</t>
+  </si>
+  <si>
+    <t>CECILIA ARLETH</t>
+  </si>
+  <si>
+    <t>LAISHA STEFANY</t>
+  </si>
+  <si>
+    <t>DANA YARELI</t>
+  </si>
+  <si>
+    <t>ORIEL</t>
   </si>
 </sst>
 </file>
@@ -902,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -937,22 +1051,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920311</v>
+        <v>19330051920270</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -960,22 +1074,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920260</v>
+        <v>19330051920269</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -983,71 +1097,393 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920372</v>
+        <v>19330051920268</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920251</v>
+        <v>19330051920274</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920414</v>
+        <v>18330051920242</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920449</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920279</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920447</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920287</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920289</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920293</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920294</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920296</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920297</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920298</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920299</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920301</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920300</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920305</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 2020.xlsx
+++ b/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>Mat</t>
   </si>
@@ -76,163 +76,58 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>ALCANTARA</t>
-  </si>
-  <si>
-    <t>AJACTLE</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CANALES</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>LAZARO</t>
-  </si>
-  <si>
     <t>MARQUEZ</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SALAZAR</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>XALAMIHUA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
+    <t>CRISTOBAL</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
   </si>
   <si>
     <t>DE JESUS</t>
   </si>
   <si>
-    <t>CHIPAHUA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>ALTAMIRANO</t>
-  </si>
-  <si>
-    <t>SANTOS</t>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>TZOPITL</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
   </si>
   <si>
     <t>PEREZ</t>
   </si>
   <si>
-    <t>FERRAL</t>
-  </si>
-  <si>
-    <t>TZOYONTLE</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
-    <t>ZOPIYACTLE</t>
-  </si>
-  <si>
-    <t>BITHIA MARIAN</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>BRENDA JANET</t>
-  </si>
-  <si>
-    <t>ADOLFO ANTONIO</t>
-  </si>
-  <si>
-    <t>EDITH</t>
-  </si>
-  <si>
-    <t>AZAEL</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>ANGEL ALEXIS</t>
-  </si>
-  <si>
     <t>ANGEL JARET</t>
   </si>
   <si>
-    <t>KARLA MICHEL</t>
-  </si>
-  <si>
-    <t>ROSA JATZIRI</t>
-  </si>
-  <si>
-    <t>JOHANA</t>
-  </si>
-  <si>
-    <t>VALERIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>NELLY MARLENE</t>
-  </si>
-  <si>
-    <t>CECILIA ARLETH</t>
-  </si>
-  <si>
-    <t>LAISHA STEFANY</t>
-  </si>
-  <si>
-    <t>DANA YARELI</t>
-  </si>
-  <si>
-    <t>ORIEL</t>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>EDGAR</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
   </si>
 </sst>
 </file>
@@ -636,19 +531,19 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>81.81999999999999</v>
+        <v>90.91</v>
       </c>
       <c r="H2">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -662,19 +557,19 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>52.63</v>
+        <v>55.26</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -688,19 +583,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>69.23</v>
+        <v>74.36</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -714,19 +609,19 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>58.82</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -782,16 +677,19 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>72.73</v>
+      </c>
+      <c r="H2">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -805,16 +703,19 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>44.74</v>
+      </c>
+      <c r="H3">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -828,16 +729,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>56.41</v>
+      </c>
+      <c r="H4">
+        <v>8.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -851,16 +755,19 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>58.82</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -916,16 +823,16 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>81.81999999999999</v>
+        <v>90.91</v>
       </c>
       <c r="H2">
         <v>8.199999999999999</v>
@@ -942,19 +849,19 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>52.63</v>
+        <v>55.26</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -968,19 +875,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>69.23</v>
+        <v>74.36</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -994,19 +901,19 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>58.82</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1016,7 +923,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1051,16 +958,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920270</v>
+        <v>19330051920287</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1074,22 +981,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920269</v>
+        <v>19330051920366</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1097,22 +1004,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920268</v>
+        <v>19330051920266</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1120,370 +1027,71 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920274</v>
+        <v>19330051920330</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920242</v>
+        <v>19330051920351</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920449</v>
+        <v>19330051920372</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920279</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920447</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920287</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920289</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920293</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920294</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920296</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920297</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920298</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920299</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920301</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920300</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19330051920305</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 2020.xlsx
+++ b/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
   <si>
     <t>Mat</t>
   </si>
@@ -76,15 +76,18 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>CRISTOBAL</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
     <t>MARQUEZ</t>
   </si>
   <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
@@ -94,15 +97,18 @@
     <t>FLORES</t>
   </si>
   <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>LUENGAS</t>
+  </si>
+  <si>
     <t>DE JESUS</t>
   </si>
   <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
     <t>TZOPITL</t>
   </si>
   <si>
@@ -112,13 +118,16 @@
     <t>PEREZ</t>
   </si>
   <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>VALENTIN</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
     <t>ANGEL JARET</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>VALENTIN</t>
   </si>
   <si>
     <t>DIEGO</t>
@@ -923,7 +932,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -958,22 +967,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920287</v>
+        <v>19330051920366</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -981,22 +990,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920366</v>
+        <v>19330051920266</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1004,16 +1013,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920266</v>
+        <v>19330051920414</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1027,22 +1036,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920330</v>
+        <v>19330051920287</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1050,16 +1059,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920351</v>
+        <v>19330051920330</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1073,24 +1082,47 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920372</v>
+        <v>19330051920351</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920372</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 2020.xlsx
+++ b/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>Mat</t>
   </si>
@@ -76,67 +76,58 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>CRISTOBAL</t>
-  </si>
-  <si>
     <t>MIXCOHUA</t>
   </si>
   <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
     <t>TREJO</t>
   </si>
   <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
     <t>IXMATLAHUA</t>
   </si>
   <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>TZOPITL</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
     <t>LUENGAS</t>
   </si>
   <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>TZOPITL</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
     <t>VALENTIN</t>
   </si>
   <si>
+    <t>ANGEL JARET</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>EDGAR</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
     <t>ELIZABETH</t>
-  </si>
-  <si>
-    <t>ANGEL JARET</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>EDGAR</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
   </si>
 </sst>
 </file>
@@ -738,16 +729,16 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>56.41</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H4">
         <v>8.4</v>
@@ -932,7 +923,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -967,22 +958,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920366</v>
+        <v>19330051920266</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -990,68 +981,68 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920266</v>
+        <v>19330051920287</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920414</v>
+        <v>19330051920330</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920287</v>
+        <v>19330051920351</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1059,22 +1050,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920330</v>
+        <v>19330051920372</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1082,47 +1073,24 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920351</v>
+        <v>19330051920414</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920372</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 2020.xlsx
+++ b/docentes/Muñoz Rivadeneyra Salvador - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>Mat</t>
   </si>
@@ -76,58 +76,22 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
     <t>TRUJILLO</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>TREJO</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
     <t>TZOPITL</t>
   </si>
   <si>
     <t>DE LA LUZ</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>LUENGAS</t>
-  </si>
-  <si>
-    <t>VALENTIN</t>
-  </si>
-  <si>
-    <t>ANGEL JARET</t>
-  </si>
-  <si>
     <t>DIEGO</t>
   </si>
   <si>
     <t>EDGAR</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>ELIZABETH</t>
   </si>
 </sst>
 </file>
@@ -583,19 +547,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G4">
-        <v>74.36</v>
+        <v>84.62</v>
       </c>
       <c r="H4">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -609,16 +573,16 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>64.70999999999999</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="H5">
         <v>8.800000000000001</v>
@@ -677,19 +641,19 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>72.73</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="H2">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -729,19 +693,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>64.09999999999999</v>
+        <v>74.36</v>
       </c>
       <c r="H4">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -755,19 +719,19 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>58.82</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -875,19 +839,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G4">
-        <v>74.36</v>
+        <v>84.62</v>
       </c>
       <c r="H4">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -901,16 +865,16 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5">
-        <v>64.70999999999999</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="H5">
         <v>8.699999999999999</v>
@@ -923,7 +887,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -958,139 +922,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920266</v>
+        <v>19330051920330</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920287</v>
+        <v>19330051920351</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>19330051920330</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>19330051920351</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920372</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920414</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
         <v>1</v>
       </c>
     </row>
